--- a/trunk/archivos/PLANILLAS TORNEO APERTURA 2015/LOS RUSTICOS.xlsx
+++ b/trunk/archivos/PLANILLAS TORNEO APERTURA 2015/LOS RUSTICOS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="45" windowWidth="15285" windowHeight="7995"/>
@@ -11,7 +11,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -134,8 +134,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,161 +488,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -685,7 +685,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -783,7 +783,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -818,7 +817,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,14 +992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:G28"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
@@ -1011,642 +1009,668 @@
     <col min="9" max="9" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="4.7" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="47"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-    </row>
-    <row r="7" spans="1:9" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="48" t="s">
+    <row r="1" spans="1:9" ht="4.7" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="29"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="29"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+    </row>
+    <row r="7" spans="1:9" ht="8.25" hidden="1" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A8" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="32"/>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" thickBot="1">
+      <c r="A9" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="52" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A10" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="54"/>
-    </row>
-    <row r="13" spans="1:9" ht="23.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A11" s="36"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+    </row>
+    <row r="13" spans="1:9" ht="23.45" customHeight="1" thickBot="1">
+      <c r="A13" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A14" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="61" t="s">
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="44"/>
+    </row>
+    <row r="15" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A15" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63" t="s">
+      <c r="B15" s="46"/>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="48"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A16" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="50"/>
+      <c r="C16" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="11"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
+      <c r="G16" s="50"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A17" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="37" t="s">
+      <c r="B17" s="58"/>
+      <c r="C17" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="38"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="34"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="33" t="s">
+      <c r="G17" s="58"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="63"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A18" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="11"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="20"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="34" t="s">
+      <c r="F18" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="25"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
+      <c r="G18" s="58"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="13"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A19" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29" t="s">
+      <c r="G19" s="71"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
+    </row>
+    <row r="20" spans="1:9" ht="19.5" thickTop="1" thickBot="1">
+      <c r="A20" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A21" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="26"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="31" t="s">
+      <c r="G21" s="53"/>
+      <c r="H21" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="32"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
+      <c r="I21" s="55"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A22" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="40">
+      <c r="B22" s="16"/>
+      <c r="C22" s="9">
         <v>31277580</v>
       </c>
-      <c r="D22" s="40"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="F22" s="20">
+        <v>25</v>
+      </c>
+      <c r="G22" s="20"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A23" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="40">
+      <c r="B23" s="22"/>
+      <c r="C23" s="9">
         <v>30534781</v>
       </c>
-      <c r="D23" s="40"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66" t="s">
+      <c r="F23" s="20">
+        <v>25</v>
+      </c>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="56"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="40">
+      <c r="B24" s="16"/>
+      <c r="C24" s="9">
         <v>34425624</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="72" t="s">
+      <c r="F24" s="20">
         <v>25</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="40">
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="56"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A25" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="9">
         <v>32467618</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
+      <c r="F25" s="20">
+        <v>25</v>
+      </c>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A26" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="40">
+      <c r="B26" s="16"/>
+      <c r="C26" s="9">
         <v>36165146</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="F26" s="20">
+        <v>25</v>
+      </c>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A27" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="40">
+      <c r="B27" s="16"/>
+      <c r="C27" s="9">
         <v>40570643</v>
       </c>
-      <c r="D27" s="40"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="12"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19" t="s">
+      <c r="F27" s="20">
+        <v>25</v>
+      </c>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A28" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="23">
+      <c r="B28" s="16"/>
+      <c r="C28" s="14">
         <v>39114701</v>
       </c>
-      <c r="D28" s="23"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="19" t="s">
+      <c r="F28" s="20">
+        <v>25</v>
+      </c>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="40">
+      <c r="B29" s="16"/>
+      <c r="C29" s="9">
         <v>28991294</v>
       </c>
-      <c r="D29" s="40"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="12"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="19" t="s">
+      <c r="F29" s="20">
+        <v>25</v>
+      </c>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A30" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="40">
+      <c r="B30" s="16"/>
+      <c r="C30" s="9">
         <v>29772621</v>
       </c>
-      <c r="D30" s="40"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="F30" s="20">
+        <v>25</v>
+      </c>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A31" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="40">
+      <c r="B31" s="20"/>
+      <c r="C31" s="9">
         <v>32193402</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="25"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="19" t="s">
+      <c r="F31" s="20">
+        <v>25</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="13"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A32" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="40">
+      <c r="B32" s="16"/>
+      <c r="C32" s="9">
         <v>27827881</v>
       </c>
-      <c r="D32" s="40"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="25"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+      <c r="F32" s="20">
+        <v>25</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A33" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="69">
+      <c r="B33" s="16"/>
+      <c r="C33" s="74">
         <v>27815267</v>
       </c>
-      <c r="D33" s="40"/>
+      <c r="D33" s="74"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="66" t="s">
+      <c r="F33" s="20">
+        <v>25</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A34" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="40">
+      <c r="B34" s="16"/>
+      <c r="C34" s="9">
         <v>32193402</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="12"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
+      <c r="F34" s="20">
+        <v>25</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="56"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="56"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="12"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="56"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A37" s="15"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="56"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A38" s="15"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="56"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A39" s="15"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="56"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A40" s="15"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="56"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="12"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="56"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="56"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="12"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="56"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="56"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A45" s="15"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="12"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="56"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="12"/>
-    </row>
-    <row r="47" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="56"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A47" s="15"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="12"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="56"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="12"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.75" thickTop="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -1657,12 +1681,12 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:9" ht="15.75">
+      <c r="A51" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -1670,7 +1694,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1681,11 +1705,11 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+    <row r="53" spans="1:9" ht="15.75">
+      <c r="A53" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B53" s="21"/>
+      <c r="B53" s="66"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
@@ -1699,6 +1723,125 @@
     <sortCondition ref="A22"/>
   </sortState>
   <mergeCells count="143">
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="A1:I7"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="H32:I32"/>
@@ -1723,125 +1866,6 @@
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A1:I7"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I12"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
   </mergeCells>
   <pageMargins left="0.13541666666666666" right="0.11224489795918367" top="0.13541666666666666" bottom="0.14583333333333334" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1850,24 +1874,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
